--- a/biology/Histoire de la zoologie et de la botanique/Miriam_Phoebe_de_Vos/Miriam_Phoebe_de_Vos.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Miriam_Phoebe_de_Vos/Miriam_Phoebe_de_Vos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Miriam Phoebe de Vos (1912-2005) est une éminente botaniste et universitaire sud-africaine. Elle est experte concernant les plantes bulbeuses, en particulier romulea. Elle s'est également beaucoup intéressée aux clivia[1].
-Elle est morte en 2005 à Stellenbosch[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Miriam Phoebe de Vos (1912-2005) est une éminente botaniste et universitaire sud-africaine. Elle est experte concernant les plantes bulbeuses, en particulier romulea. Elle s'est également beaucoup intéressée aux clivia.
+Elle est morte en 2005 à Stellenbosch.
 </t>
         </is>
       </c>
@@ -512,16 +524,18 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1940. A Cytological Study on South African Genera of the Aizoaceae and the Proteaceae. University of Stellenbosch.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1940. A Cytological Study on South African Genera of the Aizoaceae and the Proteaceae. University of Stellenbosch.
 Miriam Phoebe de Vos, Peter Goldblatt, Gerrit Germishuizen, Emsie Du Plessis. 1999. Ixieae (Part 1): Ixiinae and Tritoniinae (Ixia, Dierama, Tritonia, Crocosmia, Duthiastrum, Chasmanthe, Devia and Sparaxis). Vol. 7, Parties 1-2 de Flora of Southern Africa. Editor Nat. Bot. Institute, 179 pp.
 Miriam Phoebe de Vos, Robert Allen Dyer, l.e.w. Codd, Peter Goldblatt, Hedley Brian Rycroft. 1983. Flora of southern Africa. Vol. 7, Parte 2. Editor Govt. Print. 90 pp.
 Miriam Phoebe de Vos. 1983. Flora of Southern Africa which Deals with the Territories of South Africa, Ciskei, Transkei, Lesotho, Swaziland, Bophuthatswana, South West Africa/Namibia, Botswana and Venda: Iridaceae part 2 Ixioideae fascicle 2 Syringodea, Romulea. Vol. 7, Parte 2 de Flora of Southern Africa. Editor Bot. Res. Institute, 76 pp.  (ISBN 0-621-07939-1)
 Miriam Phoebe de Vos. 1972. The Genus Romulea in South Africa. Nº 9 de J. of South African botany. Editor National Botanic Gardens of South Africa, 307 pp.  (ISBN 0-620-00580-7)
 Miriam Phoebe de Vos. 1947. Cytological Studies in Genera of the Mesembryanthemeae. Vol. 25, Nº 1 de Annale van die Uniwersiteit van Stellenbosch. Editor Nasionale Pers, Beperk, 26 pp.
 Son nom a été donné à :
-Iridaceae : Devia xeromorpha (es) Goldblatt &amp; J.C.Manning [3]</t>
+Iridaceae : Devia xeromorpha (es) Goldblatt &amp; J.C.Manning </t>
         </is>
       </c>
     </row>
